--- a/MainAnalysis/ancova_tables.xlsx
+++ b/MainAnalysis/ancova_tables.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001 **</t>
+          <t>0.001**</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.008 **</t>
+          <t>0.008**</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.01 *</t>
+          <t>0.01*</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.044 *</t>
+          <t>0.044*</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.002 **</t>
+          <t>0.002**</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;0.001 ***</t>
+          <t>&lt;0.001***</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;0.001 ***</t>
+          <t>&lt;0.001***</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.005 **</t>
+          <t>0.005**</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.008 **</t>
+          <t>0.008**</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.01 *</t>
+          <t>0.01*</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.001 **</t>
+          <t>0.001**</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.015 *</t>
+          <t>0.015*</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;0.001 ***</t>
+          <t>&lt;0.001***</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.041 *</t>
+          <t>0.041*</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.003 **</t>
+          <t>0.003**</t>
         </is>
       </c>
     </row>
